--- a/dist/resultados_modelos.xlsx
+++ b/dist/resultados_modelos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
   <si>
     <t>status</t>
   </si>
@@ -40,7 +40,7 @@
     <t>caminho</t>
   </si>
   <si>
-    <t>ok</t>
+    <t>erro</t>
   </si>
   <si>
     <t>Fertility rate, total (births per woman)</t>
@@ -74,81 +74,6 @@
   </si>
   <si>
     <t>LinearRegression</t>
-  </si>
-  <si>
-    <t>[0.70320674 0.89871161 0.95167511 0.97113254 0.96024196 0.93788604
- 0.92310796 0.93805608 0.85053434 0.078019  ]</t>
-  </si>
-  <si>
-    <t>[0.61985813 0.79022518 0.91445416 0.95226221 0.93255465 0.92220977
- 0.89648954 0.9252491  0.91513612 0.08991174]</t>
-  </si>
-  <si>
-    <t>[0.65624491 0.76995313 0.92630307 0.94865191 0.94457789 0.92575918
- 0.89587293 0.9221643  0.80661194 0.09194379]</t>
-  </si>
-  <si>
-    <t>[ 0.65515774  0.82756561  0.9118049   0.9665338   0.91544139  0.9065511
-  0.91569665  0.92626145  0.92157462 -0.09873264]</t>
-  </si>
-  <si>
-    <t>[ 0.59872131  0.84459438  0.89307245  0.881088    0.85838326  0.81223429
-  0.62301663  0.46703658  0.39264944 -0.29726978]</t>
-  </si>
-  <si>
-    <t>[-9.99418377e+69 -1.12461551e+68 -1.86593703e+68 -3.64329009e+70
- -7.63978003e+70 -3.01864152e+72 -1.89014730e+72 -3.54575877e+72
- -1.54619060e+71 -6.05640061e+70]</t>
-  </si>
-  <si>
-    <t>[-2.23065780e-01  2.32227694e-01  4.62347366e-01  5.28982348e-01
-  2.33255147e-01 -1.30269572e+02 -4.02767526e+04 -2.13356626e+01
- -7.85138817e+01 -9.00389270e+00]</t>
-  </si>
-  <si>
-    <t>[-3.10213684e-01 -3.19337642e+01 -1.38164798e+08 -1.66468896e+10
- -6.63566088e+11 -1.03882956e+12 -1.48343419e+13 -5.90783910e+12
- -3.37821651e+12 -2.46911715e+12]</t>
-  </si>
-  <si>
-    <t>[ 6.09600268e-02  4.55646409e-01  6.25501944e-01  6.32894306e-01
-  3.75534051e-01 -1.02338522e+02 -7.68396895e+03 -1.62189902e+01
- -9.23128874e+01 -1.16989147e+01]</t>
-  </si>
-  <si>
-    <t>[-1.97832825e+00 -1.42609727e+02 -4.80042337e+09 -3.62172375e+13
- -1.78526028e+14 -5.45055353e+15 -6.45273766e+13 -2.43150447e+14
- -1.75193671e+15 -1.09475672e+16]</t>
-  </si>
-  <si>
-    <t>../../models/GradientBoostingRegressor.model</t>
-  </si>
-  <si>
-    <t>../../models/BaggingRegressor.model</t>
-  </si>
-  <si>
-    <t>../../models/RandomForestRegressor.model</t>
-  </si>
-  <si>
-    <t>../../models/ExtraTreesRegressor.model</t>
-  </si>
-  <si>
-    <t>../../models/AdaBoostRegressor.model</t>
-  </si>
-  <si>
-    <t>../../models/SGDRegressor.model</t>
-  </si>
-  <si>
-    <t>../../models/Lasso.model</t>
-  </si>
-  <si>
-    <t>../../models/Ridge.model</t>
-  </si>
-  <si>
-    <t>../../models/ElasticNet.model</t>
-  </si>
-  <si>
-    <t>../../models/LinearRegression.model</t>
   </si>
 </sst>
 </file>
@@ -548,20 +473,8 @@
       <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="D2">
-        <v>0.8212571375362261</v>
-      </c>
-      <c r="E2">
-        <v>0.2587665602145438</v>
-      </c>
       <c r="F2">
-        <v>99.31217002868652</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -574,20 +487,8 @@
       <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="D3">
-        <v>0.7958350580406958</v>
-      </c>
-      <c r="E3">
-        <v>0.2537009860603345</v>
-      </c>
       <c r="F3">
-        <v>63.18781995773315</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -600,20 +501,8 @@
       <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="D4">
-        <v>0.7888083039405301</v>
-      </c>
-      <c r="E4">
-        <v>0.2491158050028463</v>
-      </c>
       <c r="F4">
-        <v>62.15696835517883</v>
-      </c>
-      <c r="G4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -626,20 +515,8 @@
       <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="D5">
-        <v>0.7847854618763888</v>
-      </c>
-      <c r="E5">
-        <v>0.3059683693533825</v>
-      </c>
       <c r="F5">
-        <v>25.43061900138855</v>
-      </c>
-      <c r="G5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" t="s">
-        <v>33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -652,20 +529,8 @@
       <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="D6">
-        <v>0.6073526568104629</v>
-      </c>
-      <c r="E6">
-        <v>0.3467406811790488</v>
-      </c>
       <c r="F6">
-        <v>121.3846960067749</v>
-      </c>
-      <c r="G6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -678,20 +543,8 @@
       <c r="C7" t="s">
         <v>15</v>
       </c>
-      <c r="D7">
-        <v>-8.79285458714083e+71</v>
-      </c>
-      <c r="E7">
-        <v>1.325166722565074e+72</v>
-      </c>
       <c r="F7">
-        <v>0.516010046005249</v>
-      </c>
-      <c r="G7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -704,20 +557,8 @@
       <c r="C8" t="s">
         <v>16</v>
       </c>
-      <c r="D8">
-        <v>-4051.464182044574</v>
-      </c>
-      <c r="E8">
-        <v>12075.16810636934</v>
-      </c>
       <c r="F8">
-        <v>11.3900682926178</v>
-      </c>
-      <c r="G8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -730,20 +571,8 @@
       <c r="C9" t="s">
         <v>17</v>
       </c>
-      <c r="D9">
-        <v>-2830869534250.579</v>
-      </c>
-      <c r="E9">
-        <v>4402847815214.168</v>
-      </c>
       <c r="F9">
-        <v>11.80269145965576</v>
-      </c>
-      <c r="G9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -756,20 +585,8 @@
       <c r="C10" t="s">
         <v>18</v>
       </c>
-      <c r="D10">
-        <v>-790.4387726538384</v>
-      </c>
-      <c r="E10">
-        <v>2298.1479540622</v>
-      </c>
       <c r="F10">
-        <v>13.74062895774841</v>
-      </c>
-      <c r="G10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" t="s">
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -782,20 +599,8 @@
       <c r="C11" t="s">
         <v>19</v>
       </c>
-      <c r="D11">
-        <v>-1867248328734040</v>
-      </c>
-      <c r="E11">
-        <v>3433035807658652</v>
-      </c>
       <c r="F11">
-        <v>8.907492637634277</v>
-      </c>
-      <c r="G11" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/dist/resultados_modelos.xlsx
+++ b/dist/resultados_modelos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
   <si>
     <t>status</t>
   </si>
@@ -40,7 +40,7 @@
     <t>caminho</t>
   </si>
   <si>
-    <t>erro</t>
+    <t>ok</t>
   </si>
   <si>
     <t>Fertility rate, total (births per woman)</t>
@@ -74,6 +74,81 @@
   </si>
   <si>
     <t>LinearRegression</t>
+  </si>
+  <si>
+    <t>[0.96682573 0.99828275 0.99873373 0.99972682 0.9997024  0.99960914
+ 0.99896762 0.99958658 0.9993966  0.53782576]</t>
+  </si>
+  <si>
+    <t>[0.96385365 0.99751967 0.9981756  0.9998564  0.99990727 0.99992325
+ 0.99569648 0.99886383 0.99991794 0.62781765]</t>
+  </si>
+  <si>
+    <t>[0.94500566 0.9971918  0.99603545 0.99933174 0.99995936 0.99996011
+ 0.99717348 0.99773567 0.99993764 0.49388439]</t>
+  </si>
+  <si>
+    <t>[0.87340917 0.98318578 0.99047303 0.99536972 0.99676988 0.97166876
+ 0.98949744 0.99511757 0.99875283 0.63904799]</t>
+  </si>
+  <si>
+    <t>[0.93221906 0.9896514  0.98266735 0.9884338  0.98123518 0.96868252
+ 0.925214   0.93036376 0.98764181 0.73263891]</t>
+  </si>
+  <si>
+    <t>[-9.74869631e+69 -1.18313181e+69 -5.47618507e+69 -8.26811388e+68
+ -2.81891121e+71 -1.81310092e+71 -1.03370436e+72 -2.39282854e+71
+ -6.44059256e+71 -1.48551954e+70]</t>
+  </si>
+  <si>
+    <t>[-2.23065780e-01  2.32227694e-01  4.62347366e-01  5.28982348e-01
+  2.33255147e-01 -1.30269572e+02 -4.02767526e+04 -2.13356626e+01
+ -7.85138817e+01 -9.00389270e+00]</t>
+  </si>
+  <si>
+    <t>[ 4.48055604e-01  6.06338796e-01 -2.48638300e+04 -1.06431805e+09
+ -4.88947325e+10 -4.97173213e+11 -4.29328722e+09 -5.39369852e+10
+ -6.88871698e+11 -4.73979292e+12]</t>
+  </si>
+  <si>
+    <t>[ 6.09600268e-02  4.55646409e-01  6.25501944e-01  6.32894306e-01
+  3.75534051e-01 -1.02338522e+02 -7.68396895e+03 -1.62189902e+01
+ -9.23128874e+01 -1.16989147e+01]</t>
+  </si>
+  <si>
+    <t>[ 6.98034697e-01  7.56949303e-01 -1.73624004e+06 -3.73714199e+07
+ -8.65557496e+09 -2.75058805e+11 -1.95806999e+12 -3.35698995e+10
+ -2.23610276e+10 -6.43132936e+11]</t>
+  </si>
+  <si>
+    <t>../../models/GradientBoostingRegressor.model</t>
+  </si>
+  <si>
+    <t>../../models/BaggingRegressor.model</t>
+  </si>
+  <si>
+    <t>../../models/RandomForestRegressor.model</t>
+  </si>
+  <si>
+    <t>../../models/ExtraTreesRegressor.model</t>
+  </si>
+  <si>
+    <t>../../models/AdaBoostRegressor.model</t>
+  </si>
+  <si>
+    <t>../../models/SGDRegressor.model</t>
+  </si>
+  <si>
+    <t>../../models/Lasso.model</t>
+  </si>
+  <si>
+    <t>../../models/Ridge.model</t>
+  </si>
+  <si>
+    <t>../../models/ElasticNet.model</t>
+  </si>
+  <si>
+    <t>../../models/LinearRegression.model</t>
   </si>
 </sst>
 </file>
@@ -473,8 +548,20 @@
       <c r="C2" t="s">
         <v>10</v>
       </c>
+      <c r="D2">
+        <v>0.9498657118073565</v>
+      </c>
+      <c r="E2">
+        <v>0.1376871684155691</v>
+      </c>
       <c r="F2">
-        <v>0</v>
+        <v>131.8708183765411</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -487,8 +574,20 @@
       <c r="C3" t="s">
         <v>11</v>
       </c>
+      <c r="D3">
+        <v>0.958153173047309</v>
+      </c>
+      <c r="E3">
+        <v>0.1106092325236651</v>
+      </c>
       <c r="F3">
-        <v>0</v>
+        <v>50.58391785621643</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -501,8 +600,20 @@
       <c r="C4" t="s">
         <v>12</v>
       </c>
+      <c r="D4">
+        <v>0.9426215306778645</v>
+      </c>
+      <c r="E4">
+        <v>0.1504299415825261</v>
+      </c>
       <c r="F4">
-        <v>0</v>
+        <v>47.73667454719543</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -515,8 +626,20 @@
       <c r="C5" t="s">
         <v>13</v>
       </c>
+      <c r="D5">
+        <v>0.9433292175633525</v>
+      </c>
+      <c r="E5">
+        <v>0.1074893134862497</v>
+      </c>
       <c r="F5">
-        <v>0</v>
+        <v>19.06545758247375</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -529,8 +652,20 @@
       <c r="C6" t="s">
         <v>14</v>
       </c>
+      <c r="D6">
+        <v>0.9418747789470107</v>
+      </c>
+      <c r="E6">
+        <v>0.07399990967872937</v>
+      </c>
       <c r="F6">
-        <v>0</v>
+        <v>114.0626978874207</v>
+      </c>
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -543,8 +678,20 @@
       <c r="C7" t="s">
         <v>15</v>
       </c>
+      <c r="D7">
+        <v>-2.412337705042465e+71</v>
+      </c>
+      <c r="E7">
+        <v>3.273163204464693e+71</v>
+      </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.3422377109527588</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -557,8 +704,20 @@
       <c r="C8" t="s">
         <v>16</v>
       </c>
+      <c r="D8">
+        <v>-4051.464182044576</v>
+      </c>
+      <c r="E8">
+        <v>12075.16810636934</v>
+      </c>
       <c r="F8">
-        <v>0</v>
+        <v>11.56741428375244</v>
+      </c>
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -571,8 +730,20 @@
       <c r="C9" t="s">
         <v>17</v>
       </c>
+      <c r="D9">
+        <v>-603402718197.5461</v>
+      </c>
+      <c r="E9">
+        <v>1398275131351.298</v>
+      </c>
       <c r="F9">
-        <v>0</v>
+        <v>11.63190841674805</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -585,8 +756,20 @@
       <c r="C10" t="s">
         <v>18</v>
       </c>
+      <c r="D10">
+        <v>-790.4387726538359</v>
+      </c>
+      <c r="E10">
+        <v>2298.147954062192</v>
+      </c>
       <c r="F10">
-        <v>0</v>
+        <v>14.03479862213135</v>
+      </c>
+      <c r="G10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -599,8 +782,20 @@
       <c r="C11" t="s">
         <v>19</v>
       </c>
+      <c r="D11">
+        <v>-294088734216.0228</v>
+      </c>
+      <c r="E11">
+        <v>588229160126.1681</v>
+      </c>
       <c r="F11">
-        <v>0</v>
+        <v>8.799115419387817</v>
+      </c>
+      <c r="G11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
